--- a/1userData/data/Employeers.xlsx
+++ b/1userData/data/Employeers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B11627E-FC46-4272-8F88-461C1768C818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB535F7-E20B-40A4-BCF8-4CC75565989A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeersList" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="117">
   <si>
     <t>Список сотрудников</t>
   </si>
@@ -371,6 +371,15 @@
   </si>
   <si>
     <t>808619gAAAAABo3NDkRezxwQA7sPw1Wy6Hu1yiQdgwEx1GU-K3XGPDqZd_x4LquJ_eTanJFnrsqHRTr006npaciFww1CP1p8YHGewWJw==</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>тестер</t>
+  </si>
+  <si>
+    <t>010508gAAAAABpAyI3HQQBh8_uKqG61vqkLm7x8D-IZh2iEzr0vfdxwUeaoukEFhO7-t9zQU-WSLyBnDxpcM_NQ7w2AVR92H6i3O78Sw==</t>
   </si>
 </sst>
 </file>
@@ -902,13 +911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="O22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="9" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:T26"/>
+      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,6 +1962,56 @@
         <v>98</v>
       </c>
       <c r="T26" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>45292</v>
+      </c>
+      <c r="B27" s="6">
+        <v>73050</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q27" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="T27" s="41" t="s">
         <v>96</v>
       </c>
     </row>
